--- a/excel/SZDPER_20190120.xlsx
+++ b/excel/SZDPER_20190120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver/Dropbox/ZWEIG_digital/PERSONEN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver/SZD/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367C3EC0-796A-A544-9355-39BE5002A875}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0658B805-F218-BA4B-9516-D777EE1F1CFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11506,34 +11506,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -11873,6 +11845,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor indexed="44"/>
         </patternFill>
       </fill>
@@ -11923,6 +11909,20 @@
       <fill>
         <patternFill>
           <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12230,11 +12230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1662"/>
+  <dimension ref="A1:G1663"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1553" sqref="D1553"/>
+      <selection pane="bottomLeft" activeCell="A1552" sqref="A1552:XFD1552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -37264,29 +37264,29 @@
       <c r="F1551" s="5"/>
     </row>
     <row r="1552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1552" s="15">
+      <c r="A1552" s="15"/>
+      <c r="B1552" s="10"/>
+      <c r="C1552" s="10"/>
+      <c r="D1552" s="10"/>
+      <c r="E1552" s="11"/>
+      <c r="F1552" s="5"/>
+    </row>
+    <row r="1553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1553" s="15">
         <v>1582</v>
       </c>
-      <c r="B1552" s="10" t="s">
+      <c r="B1553" s="10" t="s">
         <v>3743</v>
       </c>
-      <c r="C1552" s="10" t="s">
+      <c r="C1553" s="10" t="s">
         <v>3744</v>
       </c>
-      <c r="D1552" s="10" t="s">
+      <c r="D1553" s="10" t="s">
         <v>3743</v>
       </c>
-      <c r="E1552" s="11" t="s">
+      <c r="E1553" s="11" t="s">
         <v>3745</v>
       </c>
-      <c r="F1552" s="5"/>
-    </row>
-    <row r="1553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1553" s="18"/>
-      <c r="B1553" s="10"/>
-      <c r="C1553" s="10"/>
-      <c r="D1553" s="10"/>
-      <c r="E1553" s="11"/>
       <c r="F1553" s="5"/>
     </row>
     <row r="1554" spans="1:6" x14ac:dyDescent="0.25">
@@ -37302,7 +37302,7 @@
       <c r="B1555" s="10"/>
       <c r="C1555" s="10"/>
       <c r="D1555" s="10"/>
-      <c r="E1555" s="13"/>
+      <c r="E1555" s="11"/>
       <c r="F1555" s="5"/>
     </row>
     <row r="1556" spans="1:6" x14ac:dyDescent="0.25">
@@ -37311,6 +37311,7 @@
       <c r="C1556" s="10"/>
       <c r="D1556" s="10"/>
       <c r="E1556" s="13"/>
+      <c r="F1556" s="5"/>
     </row>
     <row r="1557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1557" s="18"/>
@@ -37475,9 +37476,9 @@
     </row>
     <row r="1580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1580" s="18"/>
-      <c r="B1580" s="5"/>
-      <c r="C1580" s="5"/>
-      <c r="D1580" s="5"/>
+      <c r="B1580" s="10"/>
+      <c r="C1580" s="10"/>
+      <c r="D1580" s="10"/>
       <c r="E1580" s="13"/>
     </row>
     <row r="1581" spans="1:5" x14ac:dyDescent="0.25">
@@ -37723,7 +37724,7 @@
       <c r="B1615" s="5"/>
       <c r="C1615" s="5"/>
       <c r="D1615" s="5"/>
-      <c r="E1615" s="6"/>
+      <c r="E1615" s="13"/>
     </row>
     <row r="1616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1616" s="18"/>
@@ -38054,11 +38055,18 @@
       <c r="D1662" s="5"/>
       <c r="E1662" s="6"/>
     </row>
+    <row r="1663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1663" s="18"/>
+      <c r="B1663" s="5"/>
+      <c r="C1663" s="5"/>
+      <c r="D1663" s="5"/>
+      <c r="E1663" s="6"/>
+    </row>
   </sheetData>
-  <sortState ref="B2:F1544">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F1544">
     <sortCondition ref="B1192"/>
   </sortState>
-  <conditionalFormatting sqref="F12:F29 D12 D18:D29 B946:B1144 B1146:B1284 B173:B526 D14:D16 D893:D1284 D11:G11 D852:D889 B528:B940 D2:F10 A1048:D1048 D36:D844 E1555:E1662 E2:E1541">
+  <conditionalFormatting sqref="F12:F29 D12 D18:D29 B946:B1144 B1146:B1284 B173:B526 D14:D16 D893:D1284 D11:G11 D852:D889 B528:B940 D2:F10 A1048:D1048 D36:D844 E1556:E1663 E2:E1541">
     <cfRule type="expression" dxfId="63" priority="99" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
@@ -38066,251 +38074,251 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1285:B1294 D1285:D1294 D1296:D1393 B1296:B1555 F1296:F1531 D1395:D1532 C1533:D1544 B1543:D1579 A1544:D1555">
-    <cfRule type="expression" dxfId="3" priority="125" stopIfTrue="1">
+  <conditionalFormatting sqref="B1285:B1294 D1285:D1294 D1296:D1393 B1296:B1556 F1296:F1531 D1395:D1532 C1533:D1544 B1543:D1580 A1544:D1556">
+    <cfRule type="expression" dxfId="61" priority="125" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="128" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1295 D1295">
-    <cfRule type="expression" dxfId="61" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="121" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="130" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D35 F32:F35 F30">
-    <cfRule type="expression" dxfId="59" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="97" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="98" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F1284 B12:B172">
-    <cfRule type="expression" dxfId="57" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="91" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="94" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1285:F1294">
-    <cfRule type="expression" dxfId="55" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="87" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1295">
-    <cfRule type="expression" dxfId="53" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="88" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1543:F1544 A2:D1662">
-    <cfRule type="expression" dxfId="1" priority="51" stopIfTrue="1">
+  <conditionalFormatting sqref="F1543:F1544 A2:D1663">
+    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D890">
-    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D892">
-    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="45" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E888">
-    <cfRule type="expression" dxfId="45" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C12 C18:C29 C14:C16 C893:C940 C36:C458 C852:C889 C460:C823 C825:C844 C946:C1024 C1026:C1047 C1049:C1284">
-    <cfRule type="expression" dxfId="43" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1285:C1294 C1296:C1393 C1395:C1532">
-    <cfRule type="expression" dxfId="41" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="41" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1295">
-    <cfRule type="expression" dxfId="39" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="42" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C35">
-    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C890">
-    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C892">
-    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E524">
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1555:F1555 F2:F1554">
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="E1556:F1556 F2:F1555">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1532:E1541 E1555:E1614">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="E1532:E1541 E1556:E1615">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C824">
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E274">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C845:D851">
-    <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B941:C945">
-    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B527">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1542:E1554">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="E1542:E1555">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1542:E1554">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="E1542:E1555">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1147">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
